--- a/BFPerry_SCLegislativeDocuments_YearsActive.xlsx
+++ b/BFPerry_SCLegislativeDocuments_YearsActive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crboatwright/PerryLetters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB81E36-DE98-F545-B4AE-44C02BDCD271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA535C-EDDB-FF4A-A9A3-4EE67D0D7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1140" windowWidth="25800" windowHeight="16940" xr2:uid="{CBFB5975-52B4-864A-A66A-D0A0693A9E0E}"/>
   </bookViews>
